--- a/app/src/main/res/raw/household_relocation_form.xlsx
+++ b/app/src/main/res/raw/household_relocation_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="9255" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -435,10 +435,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -488,16 +488,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,70 +571,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,7 +587,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,22 +617,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,19 +649,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,13 +769,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,7 +793,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,133 +823,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,35 +907,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,11 +946,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,151 +986,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1544,7 +1544,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -2417,7 +2417,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="6"/>

--- a/app/src/main/res/raw/household_relocation_form.xlsx
+++ b/app/src/main/res/raw/household_relocation_form.xlsx
@@ -21,7 +21,7 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="152">
   <si>
     <t>group</t>
   </si>
@@ -82,6 +82,9 @@
     <t>label::fr</t>
   </si>
   <si>
+    <t>label::am</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>1.0. Code de visite</t>
   </si>
   <si>
+    <t xml:space="preserve">1.0. የጉብኝት ኮድ  </t>
+  </si>
+  <si>
     <t>originCode</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>1.1. Code du Ménage d'Origine</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1. የመነሻ ቤተሰብ ኮድ  </t>
+  </si>
+  <si>
     <t>destinationCode</t>
   </si>
   <si>
@@ -145,6 +154,9 @@
     <t>1.2. Code du Ménage de Destination</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2. የመድረሻ ቤተሰብ ኮድ  </t>
+  </si>
+  <si>
     <t>header2</t>
   </si>
   <si>
@@ -160,6 +172,9 @@
     <t>2.1. Code du Chef du Ménage</t>
   </si>
   <si>
+    <t xml:space="preserve">2.1. የቤተሰቡ አለቃ ኮድ  </t>
+  </si>
+  <si>
     <t>headName</t>
   </si>
   <si>
@@ -172,6 +187,9 @@
     <t>2.2. Nom du Chef du Ménage</t>
   </si>
   <si>
+    <t xml:space="preserve">2.2. የቤተሰቡ አለቃ ስም  </t>
+  </si>
+  <si>
     <t>eventDate</t>
   </si>
   <si>
@@ -187,6 +205,9 @@
     <t>3.1. Date de l'Immigration</t>
   </si>
   <si>
+    <t xml:space="preserve">3.1. የመግቢያ ቀን  </t>
+  </si>
+  <si>
     <t>reason</t>
   </si>
   <si>
@@ -205,6 +226,9 @@
     <t>3.2. Raison du Transfert du Ménage</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2. የቤተሰብን መኖሪያ ለመቀየር ምክንያት  </t>
+  </si>
+  <si>
     <t>reasonOther</t>
   </si>
   <si>
@@ -217,6 +241,9 @@
     <t>3.2.1. Précisez la Raison (si Autre)</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2.1. ምክንያቱን ዝርዝር አሳይ  </t>
+  </si>
+  <si>
     <t>${reason} = 'OTHER'</t>
   </si>
   <si>
@@ -238,6 +265,9 @@
     <t>Code de l'enquêteur</t>
   </si>
   <si>
+    <t xml:space="preserve">በመረጃ ባለሞያ ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDate</t>
   </si>
   <si>
@@ -253,6 +283,9 @@
     <t>Date de la visite</t>
   </si>
   <si>
+    <t xml:space="preserve">ቀን ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDeviceId</t>
   </si>
   <si>
@@ -262,18 +295,27 @@
     <t>Device Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የመሳሪያ መታወቂያ  </t>
+  </si>
+  <si>
     <t>collectedHouseholdId</t>
   </si>
   <si>
     <t>Collected Household Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የተከሰተው የቤተሰብ መታወቂያ  </t>
+  </si>
+  <si>
     <t>collectedMemberId</t>
   </si>
   <si>
     <t>Collected Member Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የተከሰተው የአባል መታወቂያ  </t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
@@ -286,6 +328,9 @@
     <t>Accès aux modules autorisé</t>
   </si>
   <si>
+    <t xml:space="preserve">ለመድረሻዎች የተፈቀደ መዳረሻ </t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -301,6 +346,9 @@
     <t>Changement de Statut de Résidence</t>
   </si>
   <si>
+    <t xml:space="preserve">የመኖሪያ ሁኔታ ለውጥ  </t>
+  </si>
+  <si>
     <t>EMPLOYMENT_WORK</t>
   </si>
   <si>
@@ -313,6 +361,9 @@
     <t>Raisons Professionnelles ou Liées au Travail</t>
   </si>
   <si>
+    <t xml:space="preserve">የሥራ ወይም ከስራ ጋር የተያያዘ ምክንያት  </t>
+  </si>
+  <si>
     <t>MARITAL_CHANGE</t>
   </si>
   <si>
@@ -325,6 +376,9 @@
     <t>Mariage ou Réunification Familiale</t>
   </si>
   <si>
+    <t xml:space="preserve">ጋብቻ / ፍቺ / መለያየት  </t>
+  </si>
+  <si>
     <t>HEALTH_REASONS</t>
   </si>
   <si>
@@ -337,6 +391,9 @@
     <t>Raisons de Santé</t>
   </si>
   <si>
+    <t xml:space="preserve">ከጤና ጋር የተያያዘ ምክንያት  </t>
+  </si>
+  <si>
     <t>EDUCATION</t>
   </si>
   <si>
@@ -349,6 +406,9 @@
     <t>Raisons Éducatives</t>
   </si>
   <si>
+    <t xml:space="preserve">ለትምህርት ዓላማ  </t>
+  </si>
+  <si>
     <t>DISASTER_ENVIRONMENT</t>
   </si>
   <si>
@@ -361,6 +421,9 @@
     <t>Catastrophes Naturelles ou Facteurs Environnementaux</t>
   </si>
   <si>
+    <t xml:space="preserve">ተፈጥሯዊ አደጋ ወይም አካባቢ አስቸጋሪ ሁኔታዎች  </t>
+  </si>
+  <si>
     <t>EVICTION_HOUSING</t>
   </si>
   <si>
@@ -373,6 +436,9 @@
     <t>Expulsion ou Problèmes de Logement</t>
   </si>
   <si>
+    <t xml:space="preserve">በመነሻ ወይም ቤት ጉዳይ ምክንያት  </t>
+  </si>
+  <si>
     <t>SECURITY_CONFLICT</t>
   </si>
   <si>
@@ -385,6 +451,9 @@
     <t>Déplacement pour des Raisons de Sécurité ou de Conflit</t>
   </si>
   <si>
+    <t xml:space="preserve">ስለደህንነት ወይም ከግጭት ጋር የተያያዘ እንቅስቃሴ  </t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
@@ -397,6 +466,9 @@
     <t>Autres Raisons</t>
   </si>
   <si>
+    <t>ሌላ ምክንያት</t>
+  </si>
+  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -409,6 +481,9 @@
     <t>form_name::fr</t>
   </si>
   <si>
+    <t>form_name::am</t>
+  </si>
+  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -428,6 +503,9 @@
   </si>
   <si>
     <t>Formulaire de Transfert du Ménage</t>
+  </si>
+  <si>
+    <t>የቤተሰብ እንቅስቃሴ ቅፅ</t>
   </si>
 </sst>
 </file>
@@ -435,10 +513,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -473,15 +551,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,7 +567,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,9 +580,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -539,17 +617,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,16 +647,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,15 +662,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,14 +678,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -649,37 +727,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,37 +829,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,103 +853,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,21 +995,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -947,16 +1010,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,6 +1050,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1007,106 +1085,106 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1115,44 +1193,44 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1161,6 +1239,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1202,9 +1283,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1223,9 +1301,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1541,10 +1632,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1554,17 +1645,18 @@
     <col min="3" max="3" width="14.1809523809524" customWidth="1"/>
     <col min="4" max="4" width="20.1809523809524" customWidth="1"/>
     <col min="5" max="5" width="11.7238095238095" customWidth="1"/>
-    <col min="6" max="6" width="12" style="22" customWidth="1"/>
-    <col min="7" max="7" width="20" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12" style="23" customWidth="1"/>
+    <col min="7" max="7" width="20" style="23" customWidth="1"/>
     <col min="8" max="8" width="51.5428571428571" customWidth="1"/>
     <col min="9" max="10" width="55" customWidth="1"/>
-    <col min="11" max="12" width="16.2666666666667" customWidth="1"/>
-    <col min="13" max="13" width="9.26666666666667" customWidth="1"/>
-    <col min="15" max="15" width="31" customWidth="1"/>
-    <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
+    <col min="11" max="11" width="35.9523809523809" customWidth="1"/>
+    <col min="12" max="13" width="16.2666666666667" customWidth="1"/>
+    <col min="14" max="14" width="9.26666666666667" customWidth="1"/>
+    <col min="16" max="16" width="31" customWidth="1"/>
+    <col min="17" max="17" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1580,10 +1672,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1607,427 +1699,476 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="23" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="23" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="J2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="22"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="23"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>24</v>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O3" s="22"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="23"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>28</v>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="M4" s="1"/>
       <c r="N4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O4" s="22"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="23"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="N5" t="b">
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="O6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="13" customHeight="1" spans="1:13">
+    <row r="7" ht="13" customHeight="1" spans="1:14">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" t="b">
+        <v>49</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" t="b">
+        <v>56</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="1"/>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" t="b">
+        <v>61</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" t="b">
         <v>1</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" s="19" customFormat="1" spans="1:14">
+      <c r="P9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" s="20" customFormat="1" spans="1:15">
       <c r="A10" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
-      <c r="H10" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>60</v>
+      <c r="H10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>69</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="19" t="b">
+        <v>70</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="N10" s="19" t="b">
+      <c r="O10" s="20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="20" customFormat="1" spans="1:14">
+    <row r="11" s="21" customFormat="1" spans="1:15">
       <c r="A11" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="20" t="s">
+      <c r="H11" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" s="21" customFormat="1" spans="1:18">
+      <c r="A12" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="20" t="b">
+      <c r="D12" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="O12" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="N11" s="20" t="b">
+      <c r="R12" s="21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="20" customFormat="1" spans="1:17">
-      <c r="A12" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="N12" s="20" t="b">
+    <row r="13" s="21" customFormat="1" spans="1:18">
+      <c r="A13" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="O13" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="Q12" s="20" t="b">
+      <c r="R13" s="21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" s="20" customFormat="1" spans="1:17">
-      <c r="A13" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="N13" s="20" t="b">
+    <row r="14" s="21" customFormat="1" spans="1:18">
+      <c r="A14" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="O14" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="Q13" s="20" t="b">
+      <c r="R14" s="21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="20" customFormat="1" spans="1:17">
-      <c r="A14" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="N14" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" s="21" customFormat="1" spans="1:14">
+    <row r="15" s="22" customFormat="1" spans="1:15">
       <c r="A15" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>19</v>
+        <v>65</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
-      <c r="H15" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>76</v>
+      <c r="H15" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="21" t="b">
+        <v>91</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="N15" s="21" t="b">
+      <c r="O15" s="22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1"/>
@@ -2072,28 +2213,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.5428571428571" customWidth="1"/>
     <col min="2" max="2" width="25.8190476190476" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.6761904761905" customWidth="1"/>
     <col min="4" max="4" width="50.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="53.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="13.1809523809524" customWidth="1"/>
+    <col min="6" max="6" width="33.3904761904762" customWidth="1"/>
+    <col min="7" max="7" width="13.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2101,308 +2243,360 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" s="4" customFormat="1" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E2" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F2" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="3" s="5" customFormat="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="8" s="4" customFormat="1" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="6" t="s">
+    </row>
+    <row r="4" s="5" customFormat="1" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="D4" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" s="4" customFormat="1" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="E4" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="4" t="s">
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E5" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="4" t="s">
+    </row>
+    <row r="6" s="5" customFormat="1" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" s="4" customFormat="1" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="11"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="11"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="C6" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" s="5" customFormat="1" spans="1:7">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="12"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="12"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="12"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="6:6">
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="6:6">
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="6:6">
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" s="13"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="6:7">
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="6:7">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="6:7">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="6:7">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2414,63 +2608,70 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.7238095238095" customWidth="1"/>
     <col min="2" max="2" width="28.2666666666667" customWidth="1"/>
     <col min="3" max="4" width="29.7238095238095" customWidth="1"/>
-    <col min="5" max="5" width="12.5428571428571" customWidth="1"/>
-    <col min="6" max="6" width="16.7238095238095" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="5" max="5" width="32.1714285714286" customWidth="1"/>
+    <col min="6" max="6" width="12.5428571428571" customWidth="1"/>
+    <col min="7" max="7" width="16.7238095238095" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>143</v>
+      </c>
+      <c r="F1" t="s">
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>145</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="1">
+        <v>150</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
